--- a/biology/Biologie cellulaire et moléculaire/Arvid_Carlsson/Arvid_Carlsson.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Arvid_Carlsson/Arvid_Carlsson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Per Arvid Emil Carlsson, né le 25 janvier 1923 à Uppsala en Suède et mort le 29 juin 2018 à Göteborg (Suède)[1],[2], est un médecin et neurobiologiste suédois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Per Arvid Emil Carlsson, né le 25 janvier 1923 à Uppsala en Suède et mort le 29 juin 2018 à Göteborg (Suède) est un médecin et neurobiologiste suédois.
 Il reçoit le prix Nobel de physiologie ou médecine en 2000 pour ses travaux sur la dopamine.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arvid Carlsson est le fils de l'historien Gottfrid Carlsson. Il fait ses études de médecine à l'université de Lund à partir de 1941, qu'il doit interrompre pour son service militaire bien que son pays soit neutre durant la Seconde Guerre mondiale. À la fin des hostilités, il participe à l'examen des prisonniers des camps de concentration amenés en Suède par Folke Bernadotte. En 1951, il reçoit son diplôme de médecine et sa thèse de science. Il est recruté à l'université de Göteborg en 1959 où il travaille sur les neurotransmetteurs.
 En 1979, il est lauréat du Prix Wolf de médecine avec Roger Sperry.
@@ -545,7 +559,9 @@
           <t>Apports scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les travaux d'Arvid Carlsson ont essentiellement porté sur la description du rôle de la dopamine comme neurotransmetteur et non comme simple précurseur de la norépinéphrine.
 </t>
